--- a/_work/Statistik17.xlsx
+++ b/_work/Statistik17.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F180E03-630D-40CC-BEE1-36534AF52E5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A682CCFE-F305-481E-85C2-C4FC7D899593}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="75">
   <si>
     <t>Lea</t>
   </si>
@@ -150,6 +150,99 @@
   </si>
   <si>
     <t>Brückl hotvolleys - Vil</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - WSL2</t>
+  </si>
+  <si>
+    <t>L:Alex:Bojana:Thery:Nadine:Magda:Lea</t>
+  </si>
+  <si>
+    <t>L:Thery:Alex:Celine:Magda:Vivi:Nadine</t>
+  </si>
+  <si>
+    <t>L:Thery:Bojana:Vivi:Alex:Magda:Lea</t>
+  </si>
+  <si>
+    <t>L:Bojana:Thery:Celine:Magda:Lea:Alex</t>
+  </si>
+  <si>
+    <t>l:15:3:7:4:11:10</t>
+  </si>
+  <si>
+    <t>l:20:4:11:10:15:3</t>
+  </si>
+  <si>
+    <t>11:8:W:Vivi/Lea</t>
+  </si>
+  <si>
+    <t>17:9:t</t>
+  </si>
+  <si>
+    <t>21:11:t</t>
+  </si>
+  <si>
+    <t>9:15:T</t>
+  </si>
+  <si>
+    <t>20:23:W:Vivi/Lea</t>
+  </si>
+  <si>
+    <t>7:7:w:7/20</t>
+  </si>
+  <si>
+    <t>1:2:w:20/7</t>
+  </si>
+  <si>
+    <t>11:20:w:6/15</t>
+  </si>
+  <si>
+    <t>11:20:w:21/4</t>
+  </si>
+  <si>
+    <t>21:24:w:15/6</t>
+  </si>
+  <si>
+    <t>21:24:w:4/21</t>
+  </si>
+  <si>
+    <t>10:15:W:Lea/Vivi</t>
+  </si>
+  <si>
+    <t>5:8:w:20/7</t>
+  </si>
+  <si>
+    <t>12:12:w:7/20</t>
+  </si>
+  <si>
+    <t>14:12:t</t>
+  </si>
+  <si>
+    <t>16:13:w:6/4</t>
+  </si>
+  <si>
+    <t>21:15:t</t>
+  </si>
+  <si>
+    <t>22:17:w:4/6</t>
+  </si>
+  <si>
+    <t>5:5:w:7/20</t>
+  </si>
+  <si>
+    <t>14:6:w:6/4</t>
+  </si>
+  <si>
+    <t>14:6:w:21/15</t>
+  </si>
+  <si>
+    <t>20:8:w:15/21</t>
+  </si>
+  <si>
+    <t>12:6:t</t>
+  </si>
+  <si>
+    <t>17:8:W:Nadine/Celine</t>
   </si>
 </sst>
 </file>
@@ -233,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,6 +350,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1458,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG93"/>
+  <dimension ref="A1:AG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="Q107" sqref="Q107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q5:Q13" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$14, 1, 2))</f>
+        <f t="shared" ref="Q6:Q13" si="4">IF(P6 &lt; 1, 3, IF(P6 &gt;= P$14, 1, 2))</f>
         <v>1</v>
       </c>
     </row>
@@ -3997,142 +4091,210 @@
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>43518</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="10"/>
+    <row r="76" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>43524</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="10"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="6"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
+      <c r="U78" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4" t="s">
+      <c r="W78" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
+      <c r="Y78" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4" t="s">
+      <c r="AA78" t="s">
         <v>10</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="6"/>
+      <c r="AC78" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S79" t="s">
-        <v>6</v>
-      </c>
-      <c r="U79" t="s">
-        <v>7</v>
-      </c>
-      <c r="W79" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>10</v>
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ref="M79:M88" si="30" xml:space="preserve"> B79 + D79 + F79 + H79 + J79</f>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ref="N79:N88" si="31" xml:space="preserve"> C79 + E79 + G79 + I79 + K79</f>
+        <v>5</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" ref="O79:O88" si="32">M79 - N79</f>
+        <v>-5</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" ref="P79:P88" si="33" xml:space="preserve"> IF(M79+N79=0, 0, IF(N79=0, "MAX", M79/N79))</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f>IF(P79 &lt; 1, 3, IF(P79 &gt;= P$88, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
       </c>
       <c r="AC79" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="AD79" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AE79" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AF79" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4140,1110 +4302,1997 @@
       <c r="C80">
         <v>0</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
       <c r="F80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
       <c r="M80">
-        <f t="shared" ref="M80" si="30" xml:space="preserve"> B80 + D80 + F80 + H80 + J80</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="N80">
-        <f t="shared" ref="N80" si="31" xml:space="preserve"> C80 + E80 + G80 + I80 + K80</f>
-        <v>2</v>
+        <f t="shared" si="31"/>
+        <v>3</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" ref="O80" si="32">M80 - N80</f>
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="33"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q80">
+        <f>IF(P80 &lt; 1, 3, IF(P80 &gt;= P$88, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>3</v>
+      </c>
+      <c r="X80">
+        <v>7</v>
+      </c>
+      <c r="Y80">
+        <v>2</v>
+      </c>
+      <c r="Z80">
+        <v>3</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="33"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q81">
+        <f>IF(P81 &lt; 1, 3, IF(P81 &gt;= P$88, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>5</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>5</v>
+      </c>
+      <c r="Z81">
+        <v>4</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE81" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="32"/>
+        <v>-4</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="33"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q82">
+        <f>IF(P82 &lt; 1, 3, IF(P82 &gt;= P$88, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>9</v>
+      </c>
+      <c r="T82">
+        <v>7</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>4</v>
+      </c>
+      <c r="W82">
+        <v>8</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>11</v>
+      </c>
+      <c r="Z82">
+        <v>5</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="32"/>
         <v>-2</v>
       </c>
-      <c r="P80" s="3">
-        <f t="shared" ref="P80" si="33" xml:space="preserve"> IF(M80+N80=0, 0, IF(N80=0, "MAX", M80/N80))</f>
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="S80">
+      <c r="P83" s="3">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q83">
+        <f>IF(P83 &lt; 1, 3, IF(P83 &gt;= P$88, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>8</v>
+      </c>
+      <c r="U83">
+        <v>7</v>
+      </c>
+      <c r="V83">
         <v>6</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="W83">
+        <v>10</v>
+      </c>
+      <c r="X83">
+        <v>11</v>
+      </c>
+      <c r="Y83">
+        <v>14</v>
+      </c>
+      <c r="Z83">
+        <v>6</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="33"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Q84">
+        <f>IF(P84 &lt; 1, 3, IF(P84 &gt;= P$88, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>11</v>
+      </c>
+      <c r="T84">
+        <v>9</v>
+      </c>
+      <c r="U84">
+        <v>8</v>
+      </c>
+      <c r="V84">
+        <v>9</v>
+      </c>
+      <c r="W84">
+        <v>12</v>
+      </c>
+      <c r="X84">
+        <v>12</v>
+      </c>
+      <c r="Y84">
+        <v>16</v>
+      </c>
+      <c r="Z84">
+        <v>7</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="33"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q85">
+        <f>IF(P85 &lt; 1, 3, IF(P85 &gt;= P$88, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>18</v>
+      </c>
+      <c r="T85">
+        <v>11</v>
+      </c>
+      <c r="U85">
+        <v>9</v>
+      </c>
+      <c r="V85">
+        <v>12</v>
+      </c>
+      <c r="W85">
+        <v>16</v>
+      </c>
+      <c r="X85">
+        <v>13</v>
+      </c>
+      <c r="Y85">
+        <v>22</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="33"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="Q86">
+        <f>IF(P86 &lt; 1, 3, IF(P86 &gt;= P$88, 1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>21</v>
+      </c>
+      <c r="T86">
+        <v>12</v>
+      </c>
+      <c r="U86">
+        <v>11</v>
+      </c>
+      <c r="V86">
+        <v>15</v>
+      </c>
+      <c r="W86">
+        <v>18</v>
+      </c>
+      <c r="X86">
+        <v>15</v>
+      </c>
+      <c r="Y86">
+        <v>24</v>
+      </c>
+      <c r="Z86">
+        <v>9</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="32"/>
+        <v>-6</v>
+      </c>
+      <c r="P87" s="3">
+        <f t="shared" si="33"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q87">
+        <f>IF(P87 &lt; 1, 3, IF(P87 &gt;= P$88, 1, 2))</f>
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>24</v>
+      </c>
+      <c r="T87">
+        <v>13</v>
+      </c>
+      <c r="U87">
+        <v>11</v>
+      </c>
+      <c r="V87">
+        <v>19</v>
+      </c>
+      <c r="W87">
+        <v>21</v>
+      </c>
+      <c r="X87">
+        <v>16</v>
+      </c>
+      <c r="Y87">
+        <v>25</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4">
+        <v>25</v>
+      </c>
+      <c r="C88" s="4">
+        <v>13</v>
+      </c>
+      <c r="D88" s="4">
+        <v>22</v>
+      </c>
+      <c r="E88" s="4">
+        <v>25</v>
+      </c>
+      <c r="F88" s="4">
+        <v>25</v>
+      </c>
+      <c r="G88" s="4">
+        <v>10</v>
+      </c>
+      <c r="H88" s="4">
+        <v>25</v>
+      </c>
+      <c r="I88" s="4">
+        <v>19</v>
+      </c>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4">
+        <f t="shared" si="30"/>
+        <v>97</v>
+      </c>
+      <c r="N88" s="4">
+        <f t="shared" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="O88" s="4">
+        <f t="shared" si="32"/>
+        <v>30</v>
+      </c>
+      <c r="P88" s="5">
+        <f t="shared" si="33"/>
+        <v>1.4477611940298507</v>
+      </c>
+      <c r="S88">
+        <v>25</v>
+      </c>
+      <c r="U88">
+        <v>18</v>
+      </c>
+      <c r="V88">
+        <v>20</v>
+      </c>
+      <c r="W88">
+        <v>22</v>
+      </c>
+      <c r="X88">
+        <v>17</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P89"/>
+      <c r="U89">
+        <v>20</v>
+      </c>
+      <c r="V89">
+        <v>21</v>
+      </c>
+      <c r="W89">
         <v>23</v>
       </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="M81">
-        <f t="shared" ref="M81:M88" si="34" xml:space="preserve"> B81 + D81 + F81 + H81 + J81</f>
-        <v>6</v>
-      </c>
-      <c r="N81">
-        <f t="shared" ref="N81:N88" si="35" xml:space="preserve"> C81 + E81 + G81 + I81 + K81</f>
-        <v>4</v>
-      </c>
-      <c r="O81" s="1">
-        <f t="shared" ref="O81:O88" si="36">M81 - N81</f>
-        <v>2</v>
-      </c>
-      <c r="P81" s="3">
-        <f t="shared" ref="P81:P88" si="37" xml:space="preserve"> IF(M81+N81=0, 0, IF(N81=0, "MAX", M81/N81))</f>
-        <v>1.5</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" ref="Q81:Q88" si="38">IF(P81 &lt; 1, 3, IF(P81 &gt;= P$89, 1, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>9</v>
-      </c>
-      <c r="T81">
-        <v>1</v>
-      </c>
-      <c r="U81">
-        <v>1</v>
-      </c>
-      <c r="V81">
-        <v>1</v>
-      </c>
-      <c r="W81">
-        <v>2</v>
-      </c>
-      <c r="X81">
-        <v>2</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="34"/>
-        <v>7</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="O82" s="1">
-        <f t="shared" si="36"/>
-        <v>3</v>
-      </c>
-      <c r="P82" s="3">
-        <f t="shared" si="37"/>
-        <v>1.75</v>
-      </c>
-      <c r="Q82">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>10</v>
-      </c>
-      <c r="T82">
-        <v>2</v>
-      </c>
-      <c r="U82">
-        <v>2</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
-      <c r="W82">
-        <v>4</v>
-      </c>
-      <c r="X82">
-        <v>3</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="O83" s="1">
-        <f t="shared" si="36"/>
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <f t="shared" si="37"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q83">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="S83">
-        <v>12</v>
-      </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
-      <c r="U83">
-        <v>3</v>
-      </c>
-      <c r="V83">
-        <v>3</v>
-      </c>
-      <c r="W83">
-        <v>5</v>
-      </c>
-      <c r="X83">
-        <v>4</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="O84" s="1">
-        <f t="shared" si="36"/>
-        <v>-2</v>
-      </c>
-      <c r="P84" s="3">
-        <f t="shared" si="37"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q84">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="S84">
-        <v>17</v>
-      </c>
-      <c r="T84">
-        <v>4</v>
-      </c>
-      <c r="U84">
-        <v>6</v>
-      </c>
-      <c r="V84">
-        <v>5</v>
-      </c>
-      <c r="W84">
-        <v>6</v>
-      </c>
-      <c r="X84">
-        <v>5</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85">
-        <v>5</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>5</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="O85" s="1">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="P85" s="3">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="Q85">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="S85">
-        <v>21</v>
-      </c>
-      <c r="T85">
-        <v>6</v>
-      </c>
-      <c r="U85">
-        <v>8</v>
-      </c>
-      <c r="V85">
-        <v>6</v>
-      </c>
-      <c r="W85">
-        <v>7</v>
-      </c>
-      <c r="X85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <f t="shared" ref="M86" si="39" xml:space="preserve"> B86 + D86 + F86 + H86 + J86</f>
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <f t="shared" ref="N86" si="40" xml:space="preserve"> C86 + E86 + G86 + I86 + K86</f>
-        <v>2</v>
-      </c>
-      <c r="O86" s="1">
-        <f t="shared" ref="O86" si="41">M86 - N86</f>
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <f t="shared" ref="P86" si="42" xml:space="preserve"> IF(M86+N86=0, 0, IF(N86=0, "MAX", M86/N86))</f>
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <f t="shared" ref="Q86" si="43">IF(P86 &lt; 1, 3, IF(P86 &gt;= P$89, 1, 2))</f>
-        <v>2</v>
-      </c>
-      <c r="S86">
-        <v>24</v>
-      </c>
-      <c r="T86">
-        <v>7</v>
-      </c>
-      <c r="U86">
-        <v>10</v>
-      </c>
-      <c r="V86">
-        <v>7</v>
-      </c>
-      <c r="W86">
-        <v>9</v>
-      </c>
-      <c r="X86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>4</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="34"/>
-        <v>13</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="O87" s="1">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="P87" s="3">
-        <f t="shared" si="37"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="Q87">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="S87">
-        <v>25</v>
-      </c>
-      <c r="T87">
-        <v>8</v>
-      </c>
-      <c r="U87">
-        <v>12</v>
-      </c>
-      <c r="V87">
-        <v>10</v>
-      </c>
-      <c r="W87">
+      <c r="X89">
+        <v>19</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="P88" s="3">
-        <f t="shared" si="37"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q88">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="U88">
-        <v>14</v>
-      </c>
-      <c r="V88">
-        <v>11</v>
-      </c>
-      <c r="W88">
-        <v>15</v>
-      </c>
-      <c r="X88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4">
-        <v>25</v>
-      </c>
-      <c r="C89" s="4">
-        <v>8</v>
-      </c>
-      <c r="D89" s="4">
-        <v>25</v>
-      </c>
-      <c r="E89" s="4">
-        <v>14</v>
-      </c>
-      <c r="F89" s="4">
-        <v>25</v>
-      </c>
-      <c r="G89" s="4">
-        <v>14</v>
-      </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4">
-        <f t="shared" ref="M89" si="44" xml:space="preserve"> B89 + D89 + F89 + H89 + J89</f>
-        <v>75</v>
-      </c>
-      <c r="N89" s="4">
-        <f t="shared" ref="N89" si="45" xml:space="preserve"> C89 + E89 + G89 + I89 + K89</f>
-        <v>36</v>
-      </c>
-      <c r="O89" s="4">
-        <f t="shared" ref="O89" si="46">M89 - N89</f>
-        <v>39</v>
-      </c>
-      <c r="P89" s="5">
-        <f t="shared" ref="P89" si="47" xml:space="preserve"> IF(M89+N89=0, 0, IF(N89=0, "MAX", M89/N89))</f>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="U89">
-        <v>17</v>
-      </c>
-      <c r="V89">
-        <v>12</v>
-      </c>
-      <c r="W89">
-        <v>16</v>
-      </c>
-      <c r="X89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="P90"/>
       <c r="U90">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V90">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="W90">
-        <v>19</v>
-      </c>
-      <c r="X90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P91"/>
       <c r="U91">
         <v>22</v>
       </c>
       <c r="V91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W91">
+      <c r="P92"/>
+      <c r="V92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P93"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="P94"/>
+    </row>
+    <row r="95" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>43518</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="10"/>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S97" t="s">
+        <v>6</v>
+      </c>
+      <c r="U97" t="s">
+        <v>7</v>
+      </c>
+      <c r="W97" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ref="M98" si="34" xml:space="preserve"> B98 + D98 + F98 + H98 + J98</f>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" ref="N98" si="35" xml:space="preserve"> C98 + E98 + G98 + I98 + K98</f>
+        <v>2</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" ref="O98" si="36">M98 - N98</f>
+        <v>-2</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" ref="P98" si="37" xml:space="preserve"> IF(M98+N98=0, 0, IF(N98=0, "MAX", M98/N98))</f>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>6</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X91">
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ref="M99:M106" si="38" xml:space="preserve"> B99 + D99 + F99 + H99 + J99</f>
+        <v>6</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ref="N99:N106" si="39" xml:space="preserve"> C99 + E99 + G99 + I99 + K99</f>
+        <v>4</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" ref="O99:O106" si="40">M99 - N99</f>
+        <v>2</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" ref="P99:P106" si="41" xml:space="preserve"> IF(M99+N99=0, 0, IF(N99=0, "MAX", M99/N99))</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ref="Q99:Q106" si="42">IF(P99 &lt; 1, 3, IF(P99 &gt;= P$107, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>2</v>
+      </c>
+      <c r="X99">
+        <v>2</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="41"/>
+        <v>1.75</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>4</v>
+      </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" si="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="S101">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="U92">
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>5</v>
+      </c>
+      <c r="X101">
+        <v>4</v>
+      </c>
+      <c r="AC101" t="s">
         <v>25</v>
       </c>
-      <c r="W92">
+      <c r="AD101" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="40"/>
+        <v>-2</v>
+      </c>
+      <c r="P102" s="3">
+        <f t="shared" si="41"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>17</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <v>6</v>
+      </c>
+      <c r="V102">
+        <v>5</v>
+      </c>
+      <c r="W102">
+        <v>6</v>
+      </c>
+      <c r="X102">
+        <v>5</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>21</v>
+      </c>
+      <c r="T103">
+        <v>6</v>
+      </c>
+      <c r="U103">
+        <v>8</v>
+      </c>
+      <c r="V103">
+        <v>6</v>
+      </c>
+      <c r="W103">
+        <v>7</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <f t="shared" ref="M104" si="43" xml:space="preserve"> B104 + D104 + F104 + H104 + J104</f>
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <f t="shared" ref="N104" si="44" xml:space="preserve"> C104 + E104 + G104 + I104 + K104</f>
+        <v>2</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" ref="O104" si="45">M104 - N104</f>
+        <v>0</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" ref="P104" si="46" xml:space="preserve"> IF(M104+N104=0, 0, IF(N104=0, "MAX", M104/N104))</f>
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" ref="Q104" si="47">IF(P104 &lt; 1, 3, IF(P104 &gt;= P$107, 1, 2))</f>
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>24</v>
       </c>
-      <c r="X92">
+      <c r="T104">
+        <v>7</v>
+      </c>
+      <c r="U104">
+        <v>10</v>
+      </c>
+      <c r="V104">
+        <v>7</v>
+      </c>
+      <c r="W104">
+        <v>9</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="W93">
+      <c r="N105">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="41"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="S105">
         <v>25</v>
       </c>
-      <c r="X93">
+      <c r="T105">
+        <v>8</v>
+      </c>
+      <c r="U105">
+        <v>12</v>
+      </c>
+      <c r="V105">
+        <v>10</v>
+      </c>
+      <c r="W105">
         <v>14</v>
       </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="P106" s="3">
+        <f t="shared" si="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>14</v>
+      </c>
+      <c r="V106">
+        <v>11</v>
+      </c>
+      <c r="W106">
+        <v>15</v>
+      </c>
+      <c r="X106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4">
+        <v>25</v>
+      </c>
+      <c r="C107" s="4">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4">
+        <v>25</v>
+      </c>
+      <c r="E107" s="4">
+        <v>14</v>
+      </c>
+      <c r="F107" s="4">
+        <v>25</v>
+      </c>
+      <c r="G107" s="4">
+        <v>14</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4">
+        <f t="shared" ref="M107" si="48" xml:space="preserve"> B107 + D107 + F107 + H107 + J107</f>
+        <v>75</v>
+      </c>
+      <c r="N107" s="4">
+        <f t="shared" ref="N107" si="49" xml:space="preserve"> C107 + E107 + G107 + I107 + K107</f>
+        <v>36</v>
+      </c>
+      <c r="O107" s="4">
+        <f t="shared" ref="O107" si="50">M107 - N107</f>
+        <v>39</v>
+      </c>
+      <c r="P107" s="5">
+        <f t="shared" ref="P107" si="51" xml:space="preserve"> IF(M107+N107=0, 0, IF(N107=0, "MAX", M107/N107))</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="U107">
+        <v>17</v>
+      </c>
+      <c r="V107">
+        <v>12</v>
+      </c>
+      <c r="W107">
+        <v>16</v>
+      </c>
+      <c r="X107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P108"/>
+      <c r="U108">
+        <v>18</v>
+      </c>
+      <c r="V108">
+        <v>13</v>
+      </c>
+      <c r="W108">
+        <v>19</v>
+      </c>
+      <c r="X108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U109">
+        <v>22</v>
+      </c>
+      <c r="V109">
+        <v>14</v>
+      </c>
+      <c r="W109">
+        <v>23</v>
+      </c>
+      <c r="X109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U110">
+        <v>25</v>
+      </c>
+      <c r="W110">
+        <v>24</v>
+      </c>
+      <c r="X110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>25</v>
+      </c>
+      <c r="X111">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A80:P80 A81:L85">
-    <cfRule type="expression" dxfId="122" priority="259">
-      <formula>$Q80 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="260">
-      <formula>$Q80 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="261">
-      <formula>$Q80 = 1</formula>
+  <conditionalFormatting sqref="A98:P98 A99:L103 M105:P106 A66:L70 M72:P73 A6:L10 M12:P13 A21:L25 M27:P28 A36:L40 M42:P43 A51:L55 M57:P58 A79:P87 A90:A93">
+    <cfRule type="expression" dxfId="122" priority="280">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="281">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="282">
+      <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:L88">
-    <cfRule type="expression" dxfId="119" priority="136">
-      <formula>$Q88 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="137">
-      <formula>$Q88 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="138">
-      <formula>$Q88 = 1</formula>
+  <conditionalFormatting sqref="A106:L106">
+    <cfRule type="expression" dxfId="119" priority="157">
+      <formula>$Q106 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="158">
+      <formula>$Q106 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="159">
+      <formula>$Q106 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:L87">
-    <cfRule type="expression" dxfId="116" priority="133">
-      <formula>$Q87 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="134">
-      <formula>$Q87 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="135">
-      <formula>$Q87 = 1</formula>
+  <conditionalFormatting sqref="A105:L105">
+    <cfRule type="expression" dxfId="116" priority="154">
+      <formula>$Q105 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="155">
+      <formula>$Q105 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="156">
+      <formula>$Q105 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:P85 M87:P88">
-    <cfRule type="expression" dxfId="113" priority="127">
-      <formula>$Q81 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="128">
-      <formula>$Q81 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="129">
-      <formula>$Q81 = 1</formula>
+  <conditionalFormatting sqref="M99:P103">
+    <cfRule type="expression" dxfId="113" priority="148">
+      <formula>$Q99 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="149">
+      <formula>$Q99 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="150">
+      <formula>$Q99 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:L86">
-    <cfRule type="expression" dxfId="110" priority="109">
-      <formula>$Q86 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="110">
-      <formula>$Q86 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="111">
-      <formula>$Q86 = 1</formula>
+  <conditionalFormatting sqref="A104:L104">
+    <cfRule type="expression" dxfId="110" priority="130">
+      <formula>$Q104 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="131">
+      <formula>$Q104 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="132">
+      <formula>$Q104 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M86:P86">
-    <cfRule type="expression" dxfId="107" priority="106">
-      <formula>$Q86 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="107">
-      <formula>$Q86 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="108">
-      <formula>$Q86 = 1</formula>
+  <conditionalFormatting sqref="M104:P104">
+    <cfRule type="expression" dxfId="107" priority="127">
+      <formula>$Q104 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="128">
+      <formula>$Q104 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="129">
+      <formula>$Q104 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:P64 A66:L70">
-    <cfRule type="expression" dxfId="104" priority="103">
+  <conditionalFormatting sqref="A64:P64">
+    <cfRule type="expression" dxfId="104" priority="124">
       <formula>$Q64 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="103" priority="125">
       <formula>$Q64 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="105">
+    <cfRule type="expression" dxfId="102" priority="126">
       <formula>$Q64 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:L73">
-    <cfRule type="expression" dxfId="101" priority="100">
+    <cfRule type="expression" dxfId="101" priority="121">
       <formula>$Q73 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="100" priority="122">
       <formula>$Q73 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="102">
+    <cfRule type="expression" dxfId="99" priority="123">
       <formula>$Q73 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:L72">
-    <cfRule type="expression" dxfId="98" priority="97">
+    <cfRule type="expression" dxfId="98" priority="118">
       <formula>$Q72 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="97" priority="119">
       <formula>$Q72 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99">
+    <cfRule type="expression" dxfId="96" priority="120">
       <formula>$Q72 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:P70 M72:P73">
-    <cfRule type="expression" dxfId="95" priority="94">
+  <conditionalFormatting sqref="M66:P70">
+    <cfRule type="expression" dxfId="95" priority="115">
       <formula>$Q66 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="94" priority="116">
       <formula>$Q66 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="96">
+    <cfRule type="expression" dxfId="93" priority="117">
       <formula>$Q66 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:L71">
-    <cfRule type="expression" dxfId="92" priority="91">
+    <cfRule type="expression" dxfId="92" priority="112">
       <formula>$Q71 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="92">
+    <cfRule type="expression" dxfId="91" priority="113">
       <formula>$Q71 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="93">
+    <cfRule type="expression" dxfId="90" priority="114">
       <formula>$Q71 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M71:P71">
-    <cfRule type="expression" dxfId="89" priority="88">
+    <cfRule type="expression" dxfId="89" priority="109">
       <formula>$Q71 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="88" priority="110">
       <formula>$Q71 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90">
+    <cfRule type="expression" dxfId="87" priority="111">
       <formula>$Q71 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:P65">
-    <cfRule type="expression" dxfId="86" priority="85">
+    <cfRule type="expression" dxfId="86" priority="106">
       <formula>$Q65 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="85" priority="107">
       <formula>$Q65 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87">
+    <cfRule type="expression" dxfId="84" priority="108">
       <formula>$Q65 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:P4 A6:L10">
-    <cfRule type="expression" dxfId="83" priority="82">
+  <conditionalFormatting sqref="A4:P4">
+    <cfRule type="expression" dxfId="83" priority="103">
       <formula>$Q4 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="82" priority="104">
       <formula>$Q4 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84">
+    <cfRule type="expression" dxfId="81" priority="105">
       <formula>$Q4 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="80" priority="79">
+    <cfRule type="expression" dxfId="80" priority="100">
       <formula>$Q13 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="79" priority="101">
       <formula>$Q13 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="81">
+    <cfRule type="expression" dxfId="78" priority="102">
       <formula>$Q13 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12">
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="77" priority="97">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="76" priority="98">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78">
+    <cfRule type="expression" dxfId="75" priority="99">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:P10 M12:P13">
-    <cfRule type="expression" dxfId="74" priority="73">
+  <conditionalFormatting sqref="M6:P10">
+    <cfRule type="expression" dxfId="74" priority="94">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="73" priority="95">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75">
+    <cfRule type="expression" dxfId="72" priority="96">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="71" priority="70">
+    <cfRule type="expression" dxfId="71" priority="91">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="70" priority="92">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="72">
+    <cfRule type="expression" dxfId="69" priority="93">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:P11">
-    <cfRule type="expression" dxfId="68" priority="67">
+    <cfRule type="expression" dxfId="68" priority="88">
       <formula>$Q11 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="67" priority="89">
       <formula>$Q11 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69">
+    <cfRule type="expression" dxfId="66" priority="90">
       <formula>$Q11 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:P5">
-    <cfRule type="expression" dxfId="65" priority="64">
+    <cfRule type="expression" dxfId="65" priority="85">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="64" priority="86">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66">
+    <cfRule type="expression" dxfId="63" priority="87">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:P19 A21:L25">
-    <cfRule type="expression" dxfId="62" priority="61">
+  <conditionalFormatting sqref="A19:P19">
+    <cfRule type="expression" dxfId="62" priority="82">
       <formula>$Q19 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="61" priority="83">
       <formula>$Q19 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63">
+    <cfRule type="expression" dxfId="60" priority="84">
       <formula>$Q19 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="59" priority="58">
+    <cfRule type="expression" dxfId="59" priority="79">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="58" priority="80">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60">
+    <cfRule type="expression" dxfId="57" priority="81">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="56" priority="55">
+    <cfRule type="expression" dxfId="56" priority="76">
       <formula>$Q27 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="55" priority="77">
       <formula>$Q27 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
+    <cfRule type="expression" dxfId="54" priority="78">
       <formula>$Q27 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:P25 M27:P28">
-    <cfRule type="expression" dxfId="53" priority="52">
+  <conditionalFormatting sqref="M21:P25">
+    <cfRule type="expression" dxfId="53" priority="73">
       <formula>$Q21 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="52" priority="74">
       <formula>$Q21 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="51" priority="75">
       <formula>$Q21 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="50" priority="70">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="47" priority="67">
       <formula>$Q26 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="46" priority="68">
       <formula>$Q26 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="45" priority="69">
       <formula>$Q26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:P20">
-    <cfRule type="expression" dxfId="44" priority="43">
+    <cfRule type="expression" dxfId="44" priority="64">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="43" priority="65">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="42" priority="66">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:P34 A36:L40">
-    <cfRule type="expression" dxfId="41" priority="40">
+  <conditionalFormatting sqref="A34:P34">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>$Q34 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>$Q34 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="39" priority="63">
       <formula>$Q34 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:L43">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="38" priority="58">
       <formula>$Q43 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="37" priority="59">
       <formula>$Q43 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="36" priority="60">
       <formula>$Q43 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:L42">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="35" priority="55">
       <formula>$Q42 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="34" priority="56">
       <formula>$Q42 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>$Q42 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36:P40 M42:P43">
-    <cfRule type="expression" dxfId="32" priority="31">
+  <conditionalFormatting sqref="M36:P40">
+    <cfRule type="expression" dxfId="32" priority="52">
       <formula>$Q36 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="31" priority="53">
       <formula>$Q36 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="30" priority="54">
       <formula>$Q36 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:L41">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="29" priority="49">
       <formula>$Q41 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="28" priority="50">
       <formula>$Q41 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula>$Q41 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:P41">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>$Q41 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>$Q41 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>$Q41 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:P35">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="23" priority="43">
       <formula>$Q35 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="22" priority="44">
       <formula>$Q35 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>$Q35 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49:P49 A51:L55">
-    <cfRule type="expression" dxfId="20" priority="19">
+  <conditionalFormatting sqref="A49:P49">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>$Q49 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>$Q49 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>$Q49 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:L58">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>$Q58 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="16" priority="38">
       <formula>$Q58 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="15" priority="39">
       <formula>$Q58 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:L57">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="14" priority="34">
       <formula>$Q57 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="13" priority="35">
       <formula>$Q57 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="12" priority="36">
       <formula>$Q57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51:P55 M57:P58">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="M51:P55">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>$Q51 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="10" priority="32">
       <formula>$Q51 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="9" priority="33">
       <formula>$Q51 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:L56">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="8" priority="28">
       <formula>$Q56 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="7" priority="29">
       <formula>$Q56 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>$Q56 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:P56">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="5" priority="25">
       <formula>$Q56 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>$Q56 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>$Q56 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:P50">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>$Q50 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>$Q50 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>$Q50 = 1</formula>
     </cfRule>
   </conditionalFormatting>
